--- a/input_excel/input_指向性_3_8.xlsx
+++ b/input_excel/input_指向性_3_8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A542480\Desktop\MRI\Development\MRI\text_evaluation\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A542480\Desktop\MRI\Development\MRI\Text_similarity_evaluation\input_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01335378-CA56-4F11-93DE-83530EF8537E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC7BC9F-7522-445D-9EDB-CFBEF393F5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8060" xr2:uid="{C70C9831-83E8-46B4-9474-CCC59448C8E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>input_text</t>
     <phoneticPr fontId="1"/>
@@ -44,14 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップデートが必要な経済学 現代社会では、企業経営においても国の政策決定においても、統計が重要な役割を果たす。中でも最も影響力のある統計はGDPであろう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スマートフォンの次に来るものスマートフォンはインターネットは手軽に利用するためのデバイスとして認識されコスト削減を踏んだことから開発途上国を含め世界中に広まっているディスプレイとマルチタッチセンサー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -82,6 +74,18 @@
   <si>
     <t>アフリカ経済学現代社会では</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。ディスプレーとマルチタッチセンサーによるオールインワンデバイスとしては完成の域に達したと言えよう。
+　移動体通信の歴史を見ると、1970年代後半に自動車電話が登場し、80年代後半には人が持ち運べるようになった。90年代後半の携帯電話普及で移動に制約がなくなり、2000年代後半のスマートフォンでインターネットとの融合が加速した。歴史的にはおよそ10年周期で技術革新が行われており、2010年代後半となった現在、次のイノベーションが現れても良いタイミングである。</t>
+  </si>
+  <si>
+    <t>アップデートが必要な経済学 現代社会では、企業経営においても国の政策決定においても、統計が重要な役割を果たす。中でも最も影響力のある統計はGDPであろう。GDPと景気、景気と生活の豊かさや質に強い相関があるという前提が成立していたからだ。しかし、モノと所有をベースとする社会では優秀な統計指標であったGDPが、サービス化と共有をベースとするデジタル経済時代でも有効に機能するだろうか。検証が必要だ。
+　平成元年の携帯電話の普及率（人口当たりの契約数）は0.2%。当時の生活は、黒電話、新聞、書籍、辞書、事典、地図、各種ガイドブック、オーディオ、磁気ディスク、カメラ、フィルム等々、多数のモノにあふれており、そうしたモノの所有と消費が生活の豊かさを表すバロメーターだった。しかし、今日、それらのほとんどは、たった一つのモノ（スマホ）と多様なデジタル情報に置き換わっている。価格が劇的に安価になったことで、携帯電話の普及率は、新興国でも100%を超え、今は世界中の多くの人が30年前の先進国の生活レベルを、享受できるようになった。さらに、資源の消費も格段に少なくて済むようになり、地球環境の面からも好ましい。</t>
+  </si>
+  <si>
+    <t>スマートフォンの次に来るもの スマートフォンは、インターネットを手軽に利用するためのデバイスとして認知され、コスト削減も進んだことから開発途上国を含め世界中に広まっている。ディスプレーとマルチタッチセンサーによるオールインワンデバイスとしては完成の域に達したと言えよう。
+　移動体通信の歴史を見ると、1970年代後半に自動車電話が登場し、80年代後半には人が持ち運べるようになった。90年代後半の携帯電話普及で移動に制約がなくなり、2000年代後半のスマートフォンでインターネットとの融合が加速した。歴史的にはおよそ10年周期で技術革新が行われており、2010年代後半となった現在、次のイノベーションが現れても良いタイミングである。</t>
   </si>
 </sst>
 </file>
@@ -454,7 +458,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -479,10 +483,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="324.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -490,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -501,65 +505,65 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
